--- a/MainTop/15.07.2025 новые мужские Озон/OZON_new_men.xlsx
+++ b/MainTop/15.07.2025 новые мужские Озон/OZON_new_men.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\15.07.2025 новые мужские Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\15.07.2025 новые мужские Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5F0973-394E-4E99-9254-29DD054C09AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433B938C-6D04-4E76-9D9D-DABE99473819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Термонаклейка Шредер и Кренг из Черепашек-ниндзя</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Термонаклейка Скелет череп байкер огонь</t>
   </si>
@@ -36,12 +33,6 @@
     <t>Термонаклейка Кибер-девушка в стиле аниме</t>
   </si>
   <si>
-    <t>Термонаклейка Белый волк с красным солнцем</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кратос God of War с цитатой</t>
-  </si>
-  <si>
     <t>Термонаклейка Яркий аниме белый дракон с огнём</t>
   </si>
   <si>
@@ -94,12 +85,6 @@
   </si>
   <si>
     <t>Термонаклейка Пантера в огненной ярости красный</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кибердевушка с капюшоном</t>
-  </si>
-  <si>
-    <t>Термонаклейка Череп с рогами и логотипом Metallica</t>
   </si>
   <si>
     <t>Термонаклейка Берсерк Рыцарь с мечом под луной</t>
@@ -140,7 +125,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +142,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,12 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,10 +490,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +529,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -545,7 +537,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -553,7 +545,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -569,11 +561,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +617,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -649,7 +641,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -696,46 +688,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="26" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MainTop/15.07.2025 новые мужские Озон/OZON_new_men.xlsx
+++ b/MainTop/15.07.2025 новые мужские Озон/OZON_new_men.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\15.07.2025 новые мужские Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\15.07.2025 новые мужские Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433B938C-6D04-4E76-9D9D-DABE99473819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E10BD-BF5D-4D5F-A05C-9955472E7F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Термонаклейка Скелет череп байкер огонь</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Термонаклейка Берсерк Рыцарь с мечом под луной</t>
   </si>
   <si>
-    <t>Термонаклейка Чёрный кот Catzilla Годзилла стреляет</t>
-  </si>
-  <si>
     <t>Термонаклейка Шрек мем поднимает голову</t>
   </si>
   <si>
@@ -103,6 +100,24 @@
   </si>
   <si>
     <t>Num_Copies</t>
+  </si>
+  <si>
+    <t>Термонаклейка Шредер и Кренг из Черепашек-ниндзя</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с красным солнцем</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кратос God of War с цитатой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кибердевушка с капюшоном</t>
+  </si>
+  <si>
+    <t>Термонаклейка Череп с рогами и логотипом Metallica</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный кот Catzilla Годзилла луч</t>
   </si>
 </sst>
 </file>
@@ -476,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,15 +505,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -506,7 +521,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -514,39 +529,39 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -554,15 +569,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -570,7 +585,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -578,7 +593,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -586,7 +601,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -594,7 +609,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -602,7 +617,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>16</v>
@@ -610,15 +625,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
+      <c r="A17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -626,7 +641,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -634,15 +649,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -650,7 +665,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -658,7 +673,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>16</v>
@@ -666,7 +681,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -674,7 +689,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -682,15 +697,52 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
